--- a/500all/speech_level/speeches_CHRG-114hhrg98879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400162</t>
   </si>
   <si>
-    <t>Raúl M. Grijalva</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you, Mr. Chairman. I will enter my full statement into the record, if there is no objection.    The Chairman. Can I stop you if there is an objection?</t>
   </si>
   <si>
@@ -64,27 +61,18 @@
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman, and thank you for setting up the tone of this committee today. We have with us Mr. Antonio Weiss, Counselor of the Secretary of the Treasury. He will share with us the U.S. Department of the Treasury's analysis of the situation in Puerto Rico.    We hope, Mr. Weiss, that you can help the committee as we continue to work toward legislation to advance good governance, as well as fiscal transparency and accountability. I hope you will also have some ideas about how we can improve the economy of those living in Puerto Rico. We welcome continuing that discussion, even some of those ideas that are not specifically within the jurisdiction of the Natural Resources Committee.    We very much appreciate your being with us here today. We look forward to hearing from you and the other Members as we try to bring some clarity toward this issue, and bring a solution about that is good for the people of Puerto Rico and the United States.    Thank you, Mr. Chairman, I yield back.</t>
   </si>
   <si>
     <t>412306</t>
   </si>
   <si>
-    <t>Pedro R. Pierluisi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pierluisi. Thank you, Chairman. At a Senate hearing last year, the Governor of Puerto Rico compared the territory to a ship at sea issuing a distress call to Congress. I want to clarify this metaphor. The passengers on this ship are not only the 3.5 million U.S. citizens that reside in Puerto Rico. They are also individuals and institutions located in Puerto Rico and the states that own bonds issued by the territory and its instrumentalities.    Puerto Rico and its creditors are on the same ship. We are going to sail safely to shore together or we are going to sink together. Our common fate depends on whether leaders in Washington and San Juan rise to the occasion. Principled compromise is the only course to harbor.    How did our ship arrive in such perilous waters in the first place? Precisely, because over the years the people of Puerto Rico have been poorly served by their national and local leaders. In Puerto Rico, inequality at the national level has led to mismanagement at the local level. Federal policy toward Puerto Rico is a national disgrace, contradicting the claim that the United States desires democracy and dignity for all of its citizens.    Under this policy, my constituents are American enough to fight for this country, a duty they have performed proudly since World War I. But they are not American enough to vote for President, Senators, or voting Members of the House. They are American enough to win nine Medals of Honor and to form the backbone of a U.S. Army unit that recently earned the Congressional Gold Medal, but they are not American enough to receive fair treatment under Federal programs that improve quality of life and promote work.    And so, they are moving to the states in huge numbers because it is human nature to go where you have the best chance to survive and thrive. The excuse given by Federal policymakers for such disparate treatment is always the same: ``You don't pay Federal taxes,'' they proclaim. Never mind that individuals and businesses in Puerto Rico pay about $3.6 billion in Federal taxes to the IRS every year. Never mind that it was Congress, not Puerto Rico, that chose to exempt island residents from certain Federal income taxes. And never mind that, because the Federal tax code combines tax obligations with tax credits, the average working family in Puerto Rico contributes more in Federal payroll and income taxes than the average working family in the states.    As a statehood supporter, I aspire for American citizens in Puerto Rico to have the same rights and responsibilities as American citizens in every state. I do not appreciate being told the appalling treatment we receive as a territory is, in fact, preferential treatment.    To compensate for the shortfall in Federal support, political leaders in Puerto Rico have tended to overtax local residents and businesses, impeding economic growth, and to over-borrow in the bond market, creating excessive deficits and debts. Under certain administrations in San Juan, policymaking crossed the line from imprudent to negligent. We, in Puerto Rico, must accept this fact, resolve to do better in the future, and refuse to repeat the mistakes of the past.    If our ship is to weather this storm, Congress must enact legislation that authorizes Puerto Rico to restructure a meaningful portion of its debt in a fair and orderly manner, which will ultimately benefit Puerto Rico and the vast majority of its creditors.    Today, we will have a constructive conversation about the contours of this debt restructuring mechanism, but it is no longer reasonable to question whether such a mechanism is needed at all.    In addition, because inequality has bred mismanagement, the bill should address both cause and effect. The bill cannot fix every disparity Puerto Rico faces, because only statehood can do that. But it should make a good faith effort to rectify certain disparities, and it is important to emphasize that Puerto Rico and its creditors agree on this point.    Finally, I understand that the issue of an independent oversight board is a sensitive one, especially for a territory that has no democracy at the national level. However, if the composition and powers of the board are properly calibrated, the board will supplement, not displace, local elected officials. If Puerto Rico officials act in a disciplined way, the board will be dissolved within a short period of time. It is my sense that the people of Puerto Rico recognize the potential benefits of an independent board; and it is the people, not island politicians, that matter most.    Mr. Chairman, following this hearing it is my hope and expectation that we will craft a balanced and bipartisan bill that can be enacted into law. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Weiss</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weiss. Thank you for that.</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>412643</t>
   </si>
   <si>
-    <t>Thomas MacArthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman. And, Mr. Weiss, I appreciate you being here. This is, obviously, an extremely complicated and difficult issue that we face.    You made a distinction between the territories and the states with regard to bankruptcy and fiscal issues in your opening statement. I just want to make sure I understand you. Are you suggesting that a Chapter 9-like mechanism should be extended to Puerto Rico?</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman. And, Mr. Weiss, thank you for being here today, and for your testimony.    In your opening remarks there, I did not hear you talk much about how we get the private sector flourishing in Puerto Rico. When you look at the statistics with Puerto Rico--and one theme is really the poor business climate there, the barriers in place that have kind of been systemic there for a while--and I know you talked about the debt restructuring and the oversight, but in terms of how we change the culture there to get the private sector to flourish--I mean, you read about the regulations, whether it is enforcing contracts, the tax system, registering property.    Traditionally, Puerto Rico ranks very, very low, in terms of doing that. And I know the debt is part of that, but looking at whether we engage in this legislation, how do we reduce those barriers? Because it seems to be a direct correlation to the hemorrhaging of people, talent, and opportunities out of Puerto Rico to Orlando, Florida, and lots of other places. If we do not have that business structure reform, how is this going to work?</t>
   </si>
   <si>
@@ -208,9 +190,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hice. Yes, sir.    The Chairman. Mr. Hice, you are recognized.</t>
   </si>
   <si>
@@ -280,9 +259,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you, Mr. Chairman, and to our witness, Mr. Weiss, for being here today.    The situation in Puerto Rico compels action, and I am very glad we are finally here today to discuss it. I thank the Administration for including the other territories in their proposals to address some of Puerto Rico's most pressing issues, and I urge leadership to also consider including the other territories as they draft legislation.    While our challenges are nowhere near as serious as Puerto Rico's, our territories do face challenges. I believe the inclusion of territories would avert similar crises in the future. To that end, I introduced legislation that would give the Government of Guam flexibility in extending Social Security to employees of the government. These employees are currently not a part of the system. Our retirement fund has identified the current pension system is fiscally unsustainable. So, we must be proactive to address these problems.    I also hope that the committee can consider the smaller territories as they look to other fixes for Puerto Rico, such as cover-over for the EITC and improving the FMAC for Medicaid. With that, I have a few questions for Mr. Weiss.    To what extend did the failure of the Puerto Rico pension program contribute to their current economic crisis? And do you agree that steps should be taken to prevent a similar situation in the other territories? If you could, make your answers short.</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman. I appreciate what you are doing. I have been a freshman Member and have not had an opportunity to ask questions in the past, so thank you on behalf of----    The Chairman. Now you are a more advanced Member that does not have the chance to ask questions.    [Laughter.]</t>
   </si>
   <si>
@@ -337,9 +310,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman, and thank you, Mr. Weiss, for being here with us today. This is a complicated issue. I appreciate your insights and the deep thought that the Administration has given to the most productive way forward.    And just to sort of frame this in a slightly different path, I think what happens in Puerto Rico, as you have said, at the very least in sort of the out-migration that is taking place, will come and be part of our country. And my district is very reflective of that. One in five of my constituents identify as Hispanic or Latino, and 40 percent of them are from Puerto Rico. So many of them have friends and family who still live there, and they have seen firsthand the devastating effects that the 10-year recession and the debt crisis have had on the island. This is something that those of us who represent significant Puerto Rican populations have to take very seriously, what the most productive way forward is.    A lot of the debate is whether a voluntary agreement--or really, I think the crux of the debate is whether voluntary agreements alone are a sufficient way forward, versus whether you need to have a restructuring option at hand, as well.    And again, you have given some testimony to this effect. But, I would like your thoughts as to the many complexities of the voluntary path, and solely that path, without the restructuring option at hand. And I will give you some time to answer that.</t>
   </si>
   <si>
@@ -358,9 +328,6 @@
     <t>412640</t>
   </si>
   <si>
-    <t>Ryan K. Zinke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you, Mr. Chairman, and thank you for holding what appears to be a bipartisan effort to fix the problem.    It is interesting that Montana is about a million people, Puerto Rico is about three times the size. And we are not a territory, we are a state. But clearly I looked at the Constitution--and I will quote--``The Congress shall have the power to dispose and make all needful rules and regulations respecting the territory or the property belonging to the United States.'' Clearly, Congress has the power.    And to your point, in the 1990s, Congress did look at Washington, DC, and the District, and there seems to be a great bit of difference between the two, particularly in the debt.    And as I look at it, the discussion is on the control board, what power? On one side you have an advisory board. On the other side controlling every aspect of the Puerto Rican Commonwealth.    I guess my question to you is what do you believe are the core explicit powers that the Federal oversight should have?</t>
   </si>
   <si>
@@ -385,9 +352,6 @@
     <t>412511</t>
   </si>
   <si>
-    <t>Jared Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chair. I will yield the balance of my time to my colleague from Puerto Rico, Mr. Pierluisi.</t>
   </si>
   <si>
@@ -406,9 +370,6 @@
     <t>412631</t>
   </si>
   <si>
-    <t>Garret Graves</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman, and Mr. Weiss, thank you for being here. Your testimony has been very informative, so thank you.    A question for you in following up on previous questions from my neighbor, here. The Puerto Rican Constitution, the territory's Constitution, as I understand, prioritizes debt over all other expenditures. Obviously, the whole issue on balancing autonomy with proper fiscal reform and oversight is going to be an interesting balance.    It is my understanding that last year when legislation was brought up that was going to change the Constitution to provide for more flexibility there, that the Governor opposed it, and that some of the legislators indicated their opposition, as well. Changing the Constitution, as I understand it, would require a two-thirds vote in the legislature, and be presented to the folks in Puerto Rico under referendum.    How do you balance the autonomy issue with, as I hear you saying--and I do not want to put words in your mouth--but as I hear you saying, effectively coming in and restructuring their debt to where the oversight board would have the ability to trump the Constitution?</t>
   </si>
   <si>
@@ -445,9 +406,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and thank you for conducting this hearing.    Mr. Weiss, a key element of the economic crisis in Puerto Rico is its impact on Puerto Rico health care and the system. Since passage of the ACA, the Secretary of HHS has used her existing discretionary authority to interpret most of the ACA as not applying to Puerto Rico and the territories. The territories, therefore, have no exchanges, no premium support, no coverage mandates, and no standards for health insurance plans. Yet the ACA's health insurance provider tax still applies to the territories.    Is it logical that the Administration uses its interpretive authority to relieve the territories of the benefits of the ACA, but it declines to use its interpretive authority to relieve them of the ACA's burdens? And do you foresee any relief for the island?</t>
   </si>
   <si>
@@ -469,18 +427,12 @@
     <t xml:space="preserve">    Mr. Clay. I see. I would like to yield to my colleague from Illinois, Mr. Gutierrez, the remaining time.</t>
   </si>
   <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you, sir. Thank you so much. I appreciate the gentleman from Missouri yielding to me. And welcome, Mr. Weiss.    I just want to use this intervention to say that we have talked about fiscal mismanagement in Puerto Rico. You have talked about transparency in the budget. You said that promises need to be kept, reduce spending, and pay its obligations.    Where are the jobs? Where is the economic opportunity? Where is the possibility for the people of Puerto Rico? And I would simply suggest with the 50 seconds that I have that one of the things that was recommended is that--you said it, Mr. Weiss--visit, talk. You said you have been down there. When are we going to go down and listen to the people of Puerto Rico, and have a hearing there, front and center, so that we can hear what their dreams and aspirations are, so that we can see their lives?    It is good to go down to Puerto Rico to fill our campaign coffers and war chests, but we should also go to Puerto Rico not simply for partisan political reasons, to fill our campaign coffers, but we should go down there to fill our minds with their ideas, their aspirations, and their dreams. Because otherwise, I would suggest, Mr. Chairman--and I thank you--these hearings are simply seen as a way to humiliate the people of Puerto Rico, instead of lift them.    The Chairman. First, you came in late--I am going to give you a chance to catch your--let me go back to Mr. Labrador, you have been sitting here in No Man's Land again--and give you a chance to ask questions. Then we will catch up with some of the others who have been here.</t>
   </si>
   <si>
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman. And I found that rather unfortunate, I think. That was the first time that partisanship has been brought up in this hearing today and Luis is a good friend. I was sad to hear that.    And I want to thank you. You have been going through a pretty good hearing today, a lot of really tough questions. And I don't know you, but it sounds to me like you are at least trying to find a solution to this problem, and I want to thank you for your efforts. We do not agree on every one of your solutions, not everything that you have said, but I can tell that the Administration--this is a Republican speaking here--at least is acting in good faith, trying to find a good solution to this problem that we all want to find a solution for.</t>
   </si>
   <si>
@@ -529,9 +481,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, and thank you, Mr. Weiss.    Representative Pierluisi spoke eloquently of the disparate treatment that Puerto Ricans have now under Federal law. And you talked about the oversight board, the fiscal restructuring. Can long-term fiscal stability come to Puerto Rico without addressing Medicare, Medicaid, EITC, and other stuff?</t>
   </si>
   <si>
@@ -574,9 +523,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you, Mr. Weiss. I will reiterate the words from my colleague, Mr. Labrador. I appreciate your honest approach to this, and the Administration's efforts to try to come up with a real solution here----</t>
   </si>
   <si>
@@ -607,9 +553,6 @@
     <t>412612</t>
   </si>
   <si>
-    <t>Ruben Gallego</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    Mr. Weiss, you have mentioned about the need to have economic development as the three-step process to right the ship of Puerto Rico. So far you mentioned EITC. I have some concerns with this. I represent what you could also describe as areas that are mini-Puerto Ricos, 12 percent unemployment, businesses not moving in, things of that nature.    But EITC is very helpful for my constituents because it does bring a little more extra income into their family. And it is also great for the economy because it spurs economic growth. The problem with that is, when you have 12 percent unemployment and growing, many, many people in Puerto Rico are not going to be benefiting from EITC. In terms of spurring the economy, what it will do is spur retail work, but not necessarily any other type of economic jobs, because they still import about 85 percent of everything into that island.    One of the areas I would like to see if we could explore--in my younger years, I worked for the city of Phoenix, and we did some work in terms of economic development--is maybe looking at trying to bring the HUBZone status to the whole island. That has been very helpful for my area, in terms of bringing economic productivity, some new industries, especially light manufacturing, which could be very beneficial to Puerto Rico, as well as potentially trying to use either IDAs or New Market Tax Credits, any creative way possible to basically bring a lot more interest back to Puerto Rico.    I believe with the proper set of tools that could potentially come from this oversight committee in terms of recommendations, or us, as Members of Congress, actually passing these types of policies that would be helpful, that we could actually help spur that. Are there any other ideas besides EITC that you all are thinking about doing?</t>
   </si>
   <si>
@@ -625,9 +568,6 @@
     <t>412645</t>
   </si>
   <si>
-    <t>Cresent Hardy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hardy. Thank you. Mr. Weiss, thank you for being here. You mentioned that the Puerto Rican debt payments of nearly $800 million in constitutionally prioritized debt are unlikely to be made. What impact--and I apologize if any of these questions have been asked since I was late--but what impact will that have, not only on if they fail and are prioritized over the credit markets, what will that do to not only the structure and future bonding of government GO bonds in the future to Puerto Rico, but what will it do outside of the market, over the country?</t>
   </si>
   <si>
@@ -664,9 +604,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. We all know that this is the third hearing we have had regarding the Puerto Rican debt crisis. Frankly, I am disappointed we have not gotten to the point where we can have meaningful discussions about imminent action that needs to occur with regard to the financial crisis occurring every day in Puerto Rico, with over $70 billion in public debt. I think we are obligated to have an open dialogue about the use of Chapter 9 or other innovative options. We need to consider restructuring the debt in a responsible manner for any of these growth scenarios to be able to take hold.    Mr. Weiss, since this is the third hearing on the Puerto Rico debt crisis in our committee, can you speak to the urgency of taking immediate action for the people of Puerto Rico?</t>
   </si>
   <si>
@@ -703,9 +640,6 @@
     <t>412295</t>
   </si>
   <si>
-    <t>Tom McClintock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McClintock. Thank you, Mr. Chairman.    Mr. Weiss, if we rewrote the rules on Puerto Rico's sovereign debt now, what would that do to the sovereign debts of the 50 states? They borrow at much lower interest rates precisely because of the rules that are in place. Puerto Rico got lower interest rates to borrow precisely because of this assurance of stability. By rewriting the laws, you shatter that understanding of stability. And this calls into question every other sovereign debt.    I am afraid the credit markets are going to say, ``Well, wait a second. If they can do that to the Puerto Rican debt, they can do that for California, Illinois, and New York,'' and markets will respond to that by assessing this additional risk and increasing interest costs to reflect that risk. That could sink a state like California, for example, that is carrying enormous debt right now.    In fact, the governors of Alabama, Arizona, Maine, New Mexico, Nebraska, and North Dakota wrote a letter to this effect just this past month. They said, ``Of most concern to us as governors, granting Puerto Rico such unprecedented bankruptcy authority would likely raise the borrowing costs of our states, reducing our ability to invest in vital services and eroding investor confidence in the whole notion of full faith and credit debt.''    Indeed, the National Governors Association has already warned against this in 2011, noting that states should not be given the right to declare bankruptcy themselves because the result in market volatility would raise the cost of state governments precipitously.    Now, I realize we are not talking about Chapter 9 bankruptcy, per se, but the same principle applies to rewriting the rules after they have been agreed to and loans have been made under those rules. What is your response to that?</t>
   </si>
   <si>
@@ -742,9 +676,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman. And thank you, Counselor, for being here. Have you ever done manual labor, like with a shovel, digging?</t>
   </si>
   <si>
@@ -808,9 +739,6 @@
     <t xml:space="preserve">    Mr. Weiss. Thank you, Congresswoman.    The Chairman. Mr. Serrano, before I ask my questions, let me yield to you so you have a chance to talk to the witness.</t>
   </si>
   <si>
-    <t>Serrano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Serrano. Thank you, Mr. Chairman. I also want to join you and the other Members in thanking you for holding the hearing, and for giving me an opportunity, as a non-member of this committee, to participate.    Mr. Weiss, I believe that you are a friend of Puerto Rico, and I believe that you want to solve the issue. But we keep making a mistake in this Congress and the Administration, and it does not matter what party is in power, we make the mistake. Whenever we speak of status, we make it sound like status is not the issue, that the time is not right to discuss status. I would argue that status is the problem, and it is always the right time to discuss status.    You, yourself, when asked about status, you kind of glossed over it, and I say this with all due respect and admiration. You said, ``The people of Puerto Rico,'' I think you said, ``have to resolve this. We agree that it has to be done.''    First of all, that is a mistake. The people of Puerto Rico did not invade the United States. The United States invaded the people of Puerto Rico. At the minimum, the U.S. Congress has to tell Puerto Rico what is available on the table for a change in status. It is obvious that the present status is a problem. Why is it a problem?    If there has ever been a need for proof that Puerto Rico is a colony, we just found it. Puerto Rico cannot restructure its debt without permission from the United States. Puerto Rico cannot apply Chapter 9 without being included again. I have heard people who believe in Puerto Rico sovereignty, and even Puerto Rico independence, total independence, say, ``We don't have the tools.'' Those tools are acquired through statehood, independence, or free association.    My question to you is--well, not this part, because this part is my comment. I think that what we are doing now is putting a Band-Aid on a major issue, because 2 years from now, 5 years from now, 10 years from now, the issue will be back again because Puerto Rico does not have the ability to resolve.    I read recently or heard recently, just to give you an example of where Puerto Rico finds itself, Mr. Chairman--I may be wrong, so I will stand corrected ahead of time, but I heard that Puerto Rico was going to buy plantains from the Dominican Republic and was told by the Federal Government it could not do so without its approval. That is how bad it has gotten at times.    I remember once Puerto Rico was going to have a foreign country irrigate some lands, and they were told by the State Department, ``You cannot ask that foreign country to irrigate any land.'' So you know what Puerto Rico is? It is not treated equally. Only in war time is it treated equally.    So, my question to you is--you will be consulted as this bill is put together. You will be more than consulted, not you, but the Treasury Department and you, probably, one of the leaders in it. Would the Treasury Department consider making sure that that bill has language that says, ``But we cannot ignore the fact that the status issue has to be resolved, and resolved once and for all'' ? Or are we going to continue to say that it is up to the people of Puerto Rico, the recipients of colonialism, that have to undo colonialism?    Because I can tell you, as a member of the Appropriations Committee, and I was born in the colony and now oversee the colony, so I probably need a psychiatrist on colonialism to deal with my situation, but I can tell you, as a member of the Appropriations Committee, that all the states get what applies to them, and then whatever is left over--even to get Puerto Rico on the back of a quarter during that program where we had states on the back of a quarter, I had to include special legislation to get Puerto Rico on the back of a quarter. Not a big deal, but it makes the point.    So, my question to you is, can we have the Treasury Department suggest strong language that says, ``But don't forget, you have to resolve the status question'' ?</t>
   </si>
   <si>
@@ -821,9 +749,6 @@
   </si>
   <si>
     <t>412191</t>
-  </si>
-  <si>
-    <t>Doug Lamborn</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Better late than never.</t>
@@ -1267,11 +1192,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1293,11 +1216,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1317,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1343,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1369,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1395,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1421,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1447,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1473,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1499,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1525,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1551,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1577,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1603,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1629,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1655,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1681,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1707,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1735,11 +1624,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1759,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1787,11 +1672,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1811,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1839,11 +1720,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1863,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1891,11 +1768,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1915,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1943,11 +1816,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1967,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1993,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2019,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2045,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2071,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2097,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>49</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2123,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2149,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2175,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2201,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2227,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2253,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2279,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2305,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2331,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2357,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2383,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2409,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2435,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2461,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2487,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2513,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2539,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2565,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2591,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2617,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2643,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2669,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2695,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2721,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2747,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2773,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2799,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2825,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2851,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2877,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2903,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2929,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2955,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2981,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3007,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3033,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>87</v>
-      </c>
-      <c r="G70" t="s">
-        <v>88</v>
-      </c>
-      <c r="H70" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3059,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3085,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3111,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3137,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3163,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3189,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3215,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3241,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3267,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>106</v>
-      </c>
-      <c r="G79" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3293,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3319,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
-      </c>
-      <c r="G81" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3345,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3371,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
-      </c>
-      <c r="G83" t="s">
-        <v>107</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3397,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>113</v>
-      </c>
-      <c r="G84" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3423,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3449,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G86" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3475,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3501,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
-      </c>
-      <c r="G88" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3527,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3553,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
-      </c>
-      <c r="G90" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3579,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
-      </c>
-      <c r="G91" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3605,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3631,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3657,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3683,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3709,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
-      </c>
-      <c r="G96" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3735,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3761,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
-      </c>
-      <c r="G98" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3787,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3813,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
-      </c>
-      <c r="G100" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3839,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3865,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
-      </c>
-      <c r="G102" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3891,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3917,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
-      </c>
-      <c r="G104" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3943,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3969,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
-      </c>
-      <c r="G106" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3995,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
-      </c>
-      <c r="G107" t="s">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4021,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4047,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>142</v>
-      </c>
-      <c r="G109" t="s">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4073,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4099,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
-      </c>
-      <c r="G111" t="s">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4125,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4151,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>142</v>
-      </c>
-      <c r="G113" t="s">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4177,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>151</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4203,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>153</v>
-      </c>
-      <c r="G115" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4229,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4255,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>153</v>
-      </c>
-      <c r="G117" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4281,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4307,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
-      </c>
-      <c r="G119" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4333,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4359,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
-      </c>
-      <c r="G121" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4385,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4411,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
-      </c>
-      <c r="G123" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4437,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4463,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>153</v>
-      </c>
-      <c r="G125" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4489,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4515,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>153</v>
-      </c>
-      <c r="G127" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4541,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4567,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
+        <v>138</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
         <v>153</v>
-      </c>
-      <c r="G129" t="s">
-        <v>154</v>
-      </c>
-      <c r="H129" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4593,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>170</v>
-      </c>
-      <c r="G130" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4619,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4645,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>170</v>
-      </c>
-      <c r="G132" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4671,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4697,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>170</v>
-      </c>
-      <c r="G134" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4723,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4749,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>170</v>
-      </c>
-      <c r="G136" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4775,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4801,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>170</v>
-      </c>
-      <c r="G138" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4827,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4853,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>170</v>
-      </c>
-      <c r="G140" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4879,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4905,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>170</v>
-      </c>
-      <c r="G142" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4931,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>185</v>
-      </c>
-      <c r="G143" t="s">
-        <v>186</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4957,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4983,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>185</v>
-      </c>
-      <c r="G145" t="s">
-        <v>186</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5009,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5035,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>185</v>
-      </c>
-      <c r="G147" t="s">
-        <v>186</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5061,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5087,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>185</v>
-      </c>
-      <c r="G149" t="s">
-        <v>186</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5113,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5139,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>185</v>
-      </c>
-      <c r="G151" t="s">
-        <v>186</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5165,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>196</v>
-      </c>
-      <c r="G152" t="s">
-        <v>197</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5191,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5217,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>196</v>
-      </c>
-      <c r="G154" t="s">
-        <v>197</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5243,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5269,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>202</v>
-      </c>
-      <c r="G156" t="s">
-        <v>203</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5295,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5321,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>202</v>
-      </c>
-      <c r="G158" t="s">
-        <v>203</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5347,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5373,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>202</v>
-      </c>
-      <c r="G160" t="s">
-        <v>203</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5399,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5425,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>202</v>
-      </c>
-      <c r="G162" t="s">
-        <v>203</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5451,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5477,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>202</v>
-      </c>
-      <c r="G164" t="s">
-        <v>203</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5503,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5529,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>202</v>
-      </c>
-      <c r="G166" t="s">
-        <v>203</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5555,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>215</v>
-      </c>
-      <c r="G167" t="s">
-        <v>216</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5581,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5607,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>215</v>
-      </c>
-      <c r="G169" t="s">
-        <v>216</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5633,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5659,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>215</v>
-      </c>
-      <c r="G171" t="s">
-        <v>216</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5685,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
-      </c>
-      <c r="G172" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5711,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>215</v>
-      </c>
-      <c r="G173" t="s">
-        <v>216</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5737,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5763,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5789,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5815,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5841,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>228</v>
-      </c>
-      <c r="G178" t="s">
-        <v>229</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5867,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5893,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>228</v>
-      </c>
-      <c r="G180" t="s">
-        <v>229</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5919,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5945,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>228</v>
-      </c>
-      <c r="G182" t="s">
-        <v>229</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5971,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5997,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>228</v>
-      </c>
-      <c r="G184" t="s">
-        <v>229</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6023,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6049,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>228</v>
-      </c>
-      <c r="G186" t="s">
-        <v>229</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6075,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6101,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>228</v>
-      </c>
-      <c r="G188" t="s">
-        <v>229</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6127,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>241</v>
-      </c>
-      <c r="G189" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6153,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6179,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>241</v>
-      </c>
-      <c r="G191" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6205,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6231,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>241</v>
-      </c>
-      <c r="G193" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6257,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6283,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>241</v>
-      </c>
-      <c r="G195" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6309,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6335,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>241</v>
-      </c>
-      <c r="G197" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6361,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6387,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>241</v>
-      </c>
-      <c r="G199" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6413,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6439,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>241</v>
-      </c>
-      <c r="G201" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6465,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6491,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>241</v>
-      </c>
-      <c r="G203" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6517,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
-      </c>
-      <c r="G204" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6543,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>241</v>
-      </c>
-      <c r="G205" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6569,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6595,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>241</v>
-      </c>
-      <c r="G207" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6621,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
-      </c>
-      <c r="G208" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6647,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>15</v>
-      </c>
-      <c r="G209" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6673,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>21</v>
-      </c>
-      <c r="G210" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6699,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
-      </c>
-      <c r="G211" t="s">
-        <v>264</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6725,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6751,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>21</v>
-      </c>
-      <c r="G213" t="s">
-        <v>264</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6777,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>268</v>
-      </c>
-      <c r="G214" t="s">
-        <v>269</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6803,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>268</v>
-      </c>
-      <c r="G215" t="s">
-        <v>269</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6829,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6855,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>268</v>
-      </c>
-      <c r="G217" t="s">
-        <v>269</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6881,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>21</v>
-      </c>
-      <c r="G218" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6907,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>268</v>
-      </c>
-      <c r="G219" t="s">
-        <v>269</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6933,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>21</v>
-      </c>
-      <c r="G220" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6959,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>268</v>
-      </c>
-      <c r="G221" t="s">
-        <v>269</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6985,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7011,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>21</v>
-      </c>
-      <c r="G223" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7037,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>21</v>
-      </c>
-      <c r="G224" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7063,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7089,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>21</v>
-      </c>
-      <c r="G226" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7115,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>21</v>
-      </c>
-      <c r="G227" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7141,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>21</v>
-      </c>
-      <c r="G228" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400162</t>
   </si>
   <si>
+    <t>Grijalva</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you, Mr. Chairman. I will enter my full statement into the record, if there is no objection.    The Chairman. Can I stop you if there is an objection?</t>
   </si>
   <si>
@@ -61,18 +70,33 @@
     <t>412294</t>
   </si>
   <si>
+    <t>Lummis</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman, and thank you for setting up the tone of this committee today. We have with us Mr. Antonio Weiss, Counselor of the Secretary of the Treasury. He will share with us the U.S. Department of the Treasury's analysis of the situation in Puerto Rico.    We hope, Mr. Weiss, that you can help the committee as we continue to work toward legislation to advance good governance, as well as fiscal transparency and accountability. I hope you will also have some ideas about how we can improve the economy of those living in Puerto Rico. We welcome continuing that discussion, even some of those ideas that are not specifically within the jurisdiction of the Natural Resources Committee.    We very much appreciate your being with us here today. We look forward to hearing from you and the other Members as we try to bring some clarity toward this issue, and bring a solution about that is good for the people of Puerto Rico and the United States.    Thank you, Mr. Chairman, I yield back.</t>
   </si>
   <si>
     <t>412306</t>
   </si>
   <si>
+    <t>Pierluisi</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pierluisi. Thank you, Chairman. At a Senate hearing last year, the Governor of Puerto Rico compared the territory to a ship at sea issuing a distress call to Congress. I want to clarify this metaphor. The passengers on this ship are not only the 3.5 million U.S. citizens that reside in Puerto Rico. They are also individuals and institutions located in Puerto Rico and the states that own bonds issued by the territory and its instrumentalities.    Puerto Rico and its creditors are on the same ship. We are going to sail safely to shore together or we are going to sink together. Our common fate depends on whether leaders in Washington and San Juan rise to the occasion. Principled compromise is the only course to harbor.    How did our ship arrive in such perilous waters in the first place? Precisely, because over the years the people of Puerto Rico have been poorly served by their national and local leaders. In Puerto Rico, inequality at the national level has led to mismanagement at the local level. Federal policy toward Puerto Rico is a national disgrace, contradicting the claim that the United States desires democracy and dignity for all of its citizens.    Under this policy, my constituents are American enough to fight for this country, a duty they have performed proudly since World War I. But they are not American enough to vote for President, Senators, or voting Members of the House. They are American enough to win nine Medals of Honor and to form the backbone of a U.S. Army unit that recently earned the Congressional Gold Medal, but they are not American enough to receive fair treatment under Federal programs that improve quality of life and promote work.    And so, they are moving to the states in huge numbers because it is human nature to go where you have the best chance to survive and thrive. The excuse given by Federal policymakers for such disparate treatment is always the same: ``You don't pay Federal taxes,'' they proclaim. Never mind that individuals and businesses in Puerto Rico pay about $3.6 billion in Federal taxes to the IRS every year. Never mind that it was Congress, not Puerto Rico, that chose to exempt island residents from certain Federal income taxes. And never mind that, because the Federal tax code combines tax obligations with tax credits, the average working family in Puerto Rico contributes more in Federal payroll and income taxes than the average working family in the states.    As a statehood supporter, I aspire for American citizens in Puerto Rico to have the same rights and responsibilities as American citizens in every state. I do not appreciate being told the appalling treatment we receive as a territory is, in fact, preferential treatment.    To compensate for the shortfall in Federal support, political leaders in Puerto Rico have tended to overtax local residents and businesses, impeding economic growth, and to over-borrow in the bond market, creating excessive deficits and debts. Under certain administrations in San Juan, policymaking crossed the line from imprudent to negligent. We, in Puerto Rico, must accept this fact, resolve to do better in the future, and refuse to repeat the mistakes of the past.    If our ship is to weather this storm, Congress must enact legislation that authorizes Puerto Rico to restructure a meaningful portion of its debt in a fair and orderly manner, which will ultimately benefit Puerto Rico and the vast majority of its creditors.    Today, we will have a constructive conversation about the contours of this debt restructuring mechanism, but it is no longer reasonable to question whether such a mechanism is needed at all.    In addition, because inequality has bred mismanagement, the bill should address both cause and effect. The bill cannot fix every disparity Puerto Rico faces, because only statehood can do that. But it should make a good faith effort to rectify certain disparities, and it is important to emphasize that Puerto Rico and its creditors agree on this point.    Finally, I understand that the issue of an independent oversight board is a sensitive one, especially for a territory that has no democracy at the national level. However, if the composition and powers of the board are properly calibrated, the board will supplement, not displace, local elected officials. If Puerto Rico officials act in a disciplined way, the board will be dissolved within a short period of time. It is my sense that the people of Puerto Rico recognize the potential benefits of an independent board; and it is the people, not island politicians, that matter most.    Mr. Chairman, following this hearing it is my hope and expectation that we will craft a balanced and bipartisan bill that can be enacted into law. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Weiss</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weiss. Thank you for that.</t>
   </si>
   <si>
@@ -82,6 +106,12 @@
     <t>412643</t>
   </si>
   <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman. And, Mr. Weiss, I appreciate you being here. This is, obviously, an extremely complicated and difficult issue that we face.    You made a distinction between the territories and the states with regard to bankruptcy and fiscal issues in your opening statement. I just want to make sure I understand you. Are you suggesting that a Chapter 9-like mechanism should be extended to Puerto Rico?</t>
   </si>
   <si>
@@ -151,6 +181,12 @@
     <t>412674</t>
   </si>
   <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman. And, Mr. Weiss, thank you for being here today, and for your testimony.    In your opening remarks there, I did not hear you talk much about how we get the private sector flourishing in Puerto Rico. When you look at the statistics with Puerto Rico--and one theme is really the poor business climate there, the barriers in place that have kind of been systemic there for a while--and I know you talked about the debt restructuring and the oversight, but in terms of how we change the culture there to get the private sector to flourish--I mean, you read about the regulations, whether it is enforcing contracts, the tax system, registering property.    Traditionally, Puerto Rico ranks very, very low, in terms of doing that. And I know the debt is part of that, but looking at whether we engage in this legislation, how do we reduce those barriers? Because it seems to be a direct correlation to the hemorrhaging of people, talent, and opportunities out of Puerto Rico to Orlando, Florida, and lots of other places. If we do not have that business structure reform, how is this going to work?</t>
   </si>
   <si>
@@ -190,6 +226,12 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hice. Yes, sir.    The Chairman. Mr. Hice, you are recognized.</t>
   </si>
   <si>
@@ -259,6 +301,12 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you, Mr. Chairman, and to our witness, Mr. Weiss, for being here today.    The situation in Puerto Rico compels action, and I am very glad we are finally here today to discuss it. I thank the Administration for including the other territories in their proposals to address some of Puerto Rico's most pressing issues, and I urge leadership to also consider including the other territories as they draft legislation.    While our challenges are nowhere near as serious as Puerto Rico's, our territories do face challenges. I believe the inclusion of territories would avert similar crises in the future. To that end, I introduced legislation that would give the Government of Guam flexibility in extending Social Security to employees of the government. These employees are currently not a part of the system. Our retirement fund has identified the current pension system is fiscally unsustainable. So, we must be proactive to address these problems.    I also hope that the committee can consider the smaller territories as they look to other fixes for Puerto Rico, such as cover-over for the EITC and improving the FMAC for Medicaid. With that, I have a few questions for Mr. Weiss.    To what extend did the failure of the Puerto Rico pension program contribute to their current economic crisis? And do you agree that steps should be taken to prevent a similar situation in the other territories? If you could, make your answers short.</t>
   </si>
   <si>
@@ -289,6 +337,12 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman. I appreciate what you are doing. I have been a freshman Member and have not had an opportunity to ask questions in the past, so thank you on behalf of----    The Chairman. Now you are a more advanced Member that does not have the chance to ask questions.    [Laughter.]</t>
   </si>
   <si>
@@ -310,6 +364,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman, and thank you, Mr. Weiss, for being here with us today. This is a complicated issue. I appreciate your insights and the deep thought that the Administration has given to the most productive way forward.    And just to sort of frame this in a slightly different path, I think what happens in Puerto Rico, as you have said, at the very least in sort of the out-migration that is taking place, will come and be part of our country. And my district is very reflective of that. One in five of my constituents identify as Hispanic or Latino, and 40 percent of them are from Puerto Rico. So many of them have friends and family who still live there, and they have seen firsthand the devastating effects that the 10-year recession and the debt crisis have had on the island. This is something that those of us who represent significant Puerto Rican populations have to take very seriously, what the most productive way forward is.    A lot of the debate is whether a voluntary agreement--or really, I think the crux of the debate is whether voluntary agreements alone are a sufficient way forward, versus whether you need to have a restructuring option at hand, as well.    And again, you have given some testimony to this effect. But, I would like your thoughts as to the many complexities of the voluntary path, and solely that path, without the restructuring option at hand. And I will give you some time to answer that.</t>
   </si>
   <si>
@@ -328,6 +388,12 @@
     <t>412640</t>
   </si>
   <si>
+    <t>Zinke</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you, Mr. Chairman, and thank you for holding what appears to be a bipartisan effort to fix the problem.    It is interesting that Montana is about a million people, Puerto Rico is about three times the size. And we are not a territory, we are a state. But clearly I looked at the Constitution--and I will quote--``The Congress shall have the power to dispose and make all needful rules and regulations respecting the territory or the property belonging to the United States.'' Clearly, Congress has the power.    And to your point, in the 1990s, Congress did look at Washington, DC, and the District, and there seems to be a great bit of difference between the two, particularly in the debt.    And as I look at it, the discussion is on the control board, what power? On one side you have an advisory board. On the other side controlling every aspect of the Puerto Rican Commonwealth.    I guess my question to you is what do you believe are the core explicit powers that the Federal oversight should have?</t>
   </si>
   <si>
@@ -352,6 +418,12 @@
     <t>412511</t>
   </si>
   <si>
+    <t>Huffman</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chair. I will yield the balance of my time to my colleague from Puerto Rico, Mr. Pierluisi.</t>
   </si>
   <si>
@@ -370,6 +442,12 @@
     <t>412631</t>
   </si>
   <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Garret</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman, and Mr. Weiss, thank you for being here. Your testimony has been very informative, so thank you.    A question for you in following up on previous questions from my neighbor, here. The Puerto Rican Constitution, the territory's Constitution, as I understand, prioritizes debt over all other expenditures. Obviously, the whole issue on balancing autonomy with proper fiscal reform and oversight is going to be an interesting balance.    It is my understanding that last year when legislation was brought up that was going to change the Constitution to provide for more flexibility there, that the Governor opposed it, and that some of the legislators indicated their opposition, as well. Changing the Constitution, as I understand it, would require a two-thirds vote in the legislature, and be presented to the folks in Puerto Rico under referendum.    How do you balance the autonomy issue with, as I hear you saying--and I do not want to put words in your mouth--but as I hear you saying, effectively coming in and restructuring their debt to where the oversight board would have the ability to trump the Constitution?</t>
   </si>
   <si>
@@ -406,6 +484,12 @@
     <t>400074</t>
   </si>
   <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Wm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and thank you for conducting this hearing.    Mr. Weiss, a key element of the economic crisis in Puerto Rico is its impact on Puerto Rico health care and the system. Since passage of the ACA, the Secretary of HHS has used her existing discretionary authority to interpret most of the ACA as not applying to Puerto Rico and the territories. The territories, therefore, have no exchanges, no premium support, no coverage mandates, and no standards for health insurance plans. Yet the ACA's health insurance provider tax still applies to the territories.    Is it logical that the Administration uses its interpretive authority to relieve the territories of the benefits of the ACA, but it declines to use its interpretive authority to relieve them of the ACA's burdens? And do you foresee any relief for the island?</t>
   </si>
   <si>
@@ -427,12 +511,18 @@
     <t xml:space="preserve">    Mr. Clay. I see. I would like to yield to my colleague from Illinois, Mr. Gutierrez, the remaining time.</t>
   </si>
   <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you, sir. Thank you so much. I appreciate the gentleman from Missouri yielding to me. And welcome, Mr. Weiss.    I just want to use this intervention to say that we have talked about fiscal mismanagement in Puerto Rico. You have talked about transparency in the budget. You said that promises need to be kept, reduce spending, and pay its obligations.    Where are the jobs? Where is the economic opportunity? Where is the possibility for the people of Puerto Rico? And I would simply suggest with the 50 seconds that I have that one of the things that was recommended is that--you said it, Mr. Weiss--visit, talk. You said you have been down there. When are we going to go down and listen to the people of Puerto Rico, and have a hearing there, front and center, so that we can hear what their dreams and aspirations are, so that we can see their lives?    It is good to go down to Puerto Rico to fill our campaign coffers and war chests, but we should also go to Puerto Rico not simply for partisan political reasons, to fill our campaign coffers, but we should go down there to fill our minds with their ideas, their aspirations, and their dreams. Because otherwise, I would suggest, Mr. Chairman--and I thank you--these hearings are simply seen as a way to humiliate the people of Puerto Rico, instead of lift them.    The Chairman. First, you came in late--I am going to give you a chance to catch your--let me go back to Mr. Labrador, you have been sitting here in No Man's Land again--and give you a chance to ask questions. Then we will catch up with some of the others who have been here.</t>
   </si>
   <si>
     <t>412419</t>
   </si>
   <si>
+    <t>Labrador</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman. And I found that rather unfortunate, I think. That was the first time that partisanship has been brought up in this hearing today and Luis is a good friend. I was sad to hear that.    And I want to thank you. You have been going through a pretty good hearing today, a lot of really tough questions. And I don't know you, but it sounds to me like you are at least trying to find a solution to this problem, and I want to thank you for your efforts. We do not agree on every one of your solutions, not everything that you have said, but I can tell that the Administration--this is a Republican speaking here--at least is acting in good faith, trying to find a good solution to this problem that we all want to find a solution for.</t>
   </si>
   <si>
@@ -481,6 +571,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, and thank you, Mr. Weiss.    Representative Pierluisi spoke eloquently of the disparate treatment that Puerto Ricans have now under Federal law. And you talked about the oversight board, the fiscal restructuring. Can long-term fiscal stability come to Puerto Rico without addressing Medicare, Medicaid, EITC, and other stuff?</t>
   </si>
   <si>
@@ -523,6 +619,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you, Mr. Weiss. I will reiterate the words from my colleague, Mr. Labrador. I appreciate your honest approach to this, and the Administration's efforts to try to come up with a real solution here----</t>
   </si>
   <si>
@@ -553,6 +655,12 @@
     <t>412612</t>
   </si>
   <si>
+    <t>Gallego</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    Mr. Weiss, you have mentioned about the need to have economic development as the three-step process to right the ship of Puerto Rico. So far you mentioned EITC. I have some concerns with this. I represent what you could also describe as areas that are mini-Puerto Ricos, 12 percent unemployment, businesses not moving in, things of that nature.    But EITC is very helpful for my constituents because it does bring a little more extra income into their family. And it is also great for the economy because it spurs economic growth. The problem with that is, when you have 12 percent unemployment and growing, many, many people in Puerto Rico are not going to be benefiting from EITC. In terms of spurring the economy, what it will do is spur retail work, but not necessarily any other type of economic jobs, because they still import about 85 percent of everything into that island.    One of the areas I would like to see if we could explore--in my younger years, I worked for the city of Phoenix, and we did some work in terms of economic development--is maybe looking at trying to bring the HUBZone status to the whole island. That has been very helpful for my area, in terms of bringing economic productivity, some new industries, especially light manufacturing, which could be very beneficial to Puerto Rico, as well as potentially trying to use either IDAs or New Market Tax Credits, any creative way possible to basically bring a lot more interest back to Puerto Rico.    I believe with the proper set of tools that could potentially come from this oversight committee in terms of recommendations, or us, as Members of Congress, actually passing these types of policies that would be helpful, that we could actually help spur that. Are there any other ideas besides EITC that you all are thinking about doing?</t>
   </si>
   <si>
@@ -568,6 +676,12 @@
     <t>412645</t>
   </si>
   <si>
+    <t>Hardy</t>
+  </si>
+  <si>
+    <t>Cresent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hardy. Thank you. Mr. Weiss, thank you for being here. You mentioned that the Puerto Rican debt payments of nearly $800 million in constitutionally prioritized debt are unlikely to be made. What impact--and I apologize if any of these questions have been asked since I was late--but what impact will that have, not only on if they fail and are prioritized over the credit markets, what will that do to not only the structure and future bonding of government GO bonds in the future to Puerto Rico, but what will it do outside of the market, over the country?</t>
   </si>
   <si>
@@ -604,6 +718,9 @@
     <t>412308</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. We all know that this is the third hearing we have had regarding the Puerto Rican debt crisis. Frankly, I am disappointed we have not gotten to the point where we can have meaningful discussions about imminent action that needs to occur with regard to the financial crisis occurring every day in Puerto Rico, with over $70 billion in public debt. I think we are obligated to have an open dialogue about the use of Chapter 9 or other innovative options. We need to consider restructuring the debt in a responsible manner for any of these growth scenarios to be able to take hold.    Mr. Weiss, since this is the third hearing on the Puerto Rico debt crisis in our committee, can you speak to the urgency of taking immediate action for the people of Puerto Rico?</t>
   </si>
   <si>
@@ -640,6 +757,9 @@
     <t>412295</t>
   </si>
   <si>
+    <t>McClintock</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McClintock. Thank you, Mr. Chairman.    Mr. Weiss, if we rewrote the rules on Puerto Rico's sovereign debt now, what would that do to the sovereign debts of the 50 states? They borrow at much lower interest rates precisely because of the rules that are in place. Puerto Rico got lower interest rates to borrow precisely because of this assurance of stability. By rewriting the laws, you shatter that understanding of stability. And this calls into question every other sovereign debt.    I am afraid the credit markets are going to say, ``Well, wait a second. If they can do that to the Puerto Rican debt, they can do that for California, Illinois, and New York,'' and markets will respond to that by assessing this additional risk and increasing interest costs to reflect that risk. That could sink a state like California, for example, that is carrying enormous debt right now.    In fact, the governors of Alabama, Arizona, Maine, New Mexico, Nebraska, and North Dakota wrote a letter to this effect just this past month. They said, ``Of most concern to us as governors, granting Puerto Rico such unprecedented bankruptcy authority would likely raise the borrowing costs of our states, reducing our ability to invest in vital services and eroding investor confidence in the whole notion of full faith and credit debt.''    Indeed, the National Governors Association has already warned against this in 2011, noting that states should not be given the right to declare bankruptcy themselves because the result in market volatility would raise the cost of state governments precipitously.    Now, I realize we are not talking about Chapter 9 bankruptcy, per se, but the same principle applies to rewriting the rules after they have been agreed to and loans have been made under those rules. What is your response to that?</t>
   </si>
   <si>
@@ -676,6 +796,12 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Gohmert</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman. And thank you, Counselor, for being here. Have you ever done manual labor, like with a shovel, digging?</t>
   </si>
   <si>
@@ -739,6 +865,9 @@
     <t xml:space="preserve">    Mr. Weiss. Thank you, Congresswoman.    The Chairman. Mr. Serrano, before I ask my questions, let me yield to you so you have a chance to talk to the witness.</t>
   </si>
   <si>
+    <t>Serrano</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Serrano. Thank you, Mr. Chairman. I also want to join you and the other Members in thanking you for holding the hearing, and for giving me an opportunity, as a non-member of this committee, to participate.    Mr. Weiss, I believe that you are a friend of Puerto Rico, and I believe that you want to solve the issue. But we keep making a mistake in this Congress and the Administration, and it does not matter what party is in power, we make the mistake. Whenever we speak of status, we make it sound like status is not the issue, that the time is not right to discuss status. I would argue that status is the problem, and it is always the right time to discuss status.    You, yourself, when asked about status, you kind of glossed over it, and I say this with all due respect and admiration. You said, ``The people of Puerto Rico,'' I think you said, ``have to resolve this. We agree that it has to be done.''    First of all, that is a mistake. The people of Puerto Rico did not invade the United States. The United States invaded the people of Puerto Rico. At the minimum, the U.S. Congress has to tell Puerto Rico what is available on the table for a change in status. It is obvious that the present status is a problem. Why is it a problem?    If there has ever been a need for proof that Puerto Rico is a colony, we just found it. Puerto Rico cannot restructure its debt without permission from the United States. Puerto Rico cannot apply Chapter 9 without being included again. I have heard people who believe in Puerto Rico sovereignty, and even Puerto Rico independence, total independence, say, ``We don't have the tools.'' Those tools are acquired through statehood, independence, or free association.    My question to you is--well, not this part, because this part is my comment. I think that what we are doing now is putting a Band-Aid on a major issue, because 2 years from now, 5 years from now, 10 years from now, the issue will be back again because Puerto Rico does not have the ability to resolve.    I read recently or heard recently, just to give you an example of where Puerto Rico finds itself, Mr. Chairman--I may be wrong, so I will stand corrected ahead of time, but I heard that Puerto Rico was going to buy plantains from the Dominican Republic and was told by the Federal Government it could not do so without its approval. That is how bad it has gotten at times.    I remember once Puerto Rico was going to have a foreign country irrigate some lands, and they were told by the State Department, ``You cannot ask that foreign country to irrigate any land.'' So you know what Puerto Rico is? It is not treated equally. Only in war time is it treated equally.    So, my question to you is--you will be consulted as this bill is put together. You will be more than consulted, not you, but the Treasury Department and you, probably, one of the leaders in it. Would the Treasury Department consider making sure that that bill has language that says, ``But we cannot ignore the fact that the status issue has to be resolved, and resolved once and for all'' ? Or are we going to continue to say that it is up to the people of Puerto Rico, the recipients of colonialism, that have to undo colonialism?    Because I can tell you, as a member of the Appropriations Committee, and I was born in the colony and now oversee the colony, so I probably need a psychiatrist on colonialism to deal with my situation, but I can tell you, as a member of the Appropriations Committee, that all the states get what applies to them, and then whatever is left over--even to get Puerto Rico on the back of a quarter during that program where we had states on the back of a quarter, I had to include special legislation to get Puerto Rico on the back of a quarter. Not a big deal, but it makes the point.    So, my question to you is, can we have the Treasury Department suggest strong language that says, ``But don't forget, you have to resolve the status question'' ?</t>
   </si>
   <si>
@@ -749,6 +878,12 @@
   </si>
   <si>
     <t>412191</t>
+  </si>
+  <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Better late than never.</t>
@@ -1142,7 +1277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,7 +1285,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,5453 +1307,6381 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
       <c r="H55" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
       <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G64" t="s">
+        <v>95</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G66" t="s">
+        <v>95</v>
+      </c>
       <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>95</v>
+      </c>
       <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
       <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G73" t="s">
+        <v>107</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G74" t="s">
+        <v>107</v>
+      </c>
       <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G76" t="s">
+        <v>107</v>
+      </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G78" t="s">
+        <v>107</v>
+      </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
       <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G81" t="s">
+        <v>116</v>
+      </c>
       <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G83" t="s">
+        <v>116</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G84" t="s">
+        <v>124</v>
+      </c>
       <c r="H84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G86" t="s">
+        <v>124</v>
+      </c>
       <c r="H86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G88" t="s">
+        <v>124</v>
+      </c>
       <c r="H88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G90" t="s">
+        <v>124</v>
+      </c>
       <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G91" t="s">
+        <v>134</v>
+      </c>
       <c r="H91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
       <c r="H92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
       <c r="H94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G95" t="s">
+        <v>134</v>
+      </c>
       <c r="H95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>117</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G96" t="s">
+        <v>142</v>
+      </c>
       <c r="H96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I96" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G98" t="s">
+        <v>142</v>
+      </c>
       <c r="H98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>117</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G100" t="s">
+        <v>142</v>
+      </c>
       <c r="H100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G102" t="s">
+        <v>142</v>
+      </c>
       <c r="H102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>117</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G104" t="s">
+        <v>142</v>
+      </c>
       <c r="H104" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G106" t="s">
+        <v>142</v>
+      </c>
       <c r="H106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>129</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G107" t="s">
+        <v>156</v>
+      </c>
       <c r="H107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>129</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G109" t="s">
+        <v>156</v>
+      </c>
       <c r="H109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G111" t="s">
+        <v>156</v>
+      </c>
       <c r="H111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G113" t="s">
+        <v>156</v>
+      </c>
       <c r="H113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I113" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>165</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>138</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G115" t="s">
+        <v>168</v>
+      </c>
       <c r="H115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G117" t="s">
+        <v>168</v>
+      </c>
       <c r="H117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G119" t="s">
+        <v>168</v>
+      </c>
       <c r="H119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G121" t="s">
+        <v>168</v>
+      </c>
       <c r="H121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G123" t="s">
+        <v>168</v>
+      </c>
       <c r="H123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G125" t="s">
+        <v>168</v>
+      </c>
       <c r="H125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G127" t="s">
+        <v>168</v>
+      </c>
       <c r="H127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G129" t="s">
+        <v>168</v>
+      </c>
       <c r="H129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>154</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G130" t="s">
+        <v>185</v>
+      </c>
       <c r="H130" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I130" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G131" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>154</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G132" t="s">
+        <v>185</v>
+      </c>
       <c r="H132" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>154</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G134" t="s">
+        <v>185</v>
+      </c>
       <c r="H134" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I134" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G135" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>154</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G136" t="s">
+        <v>185</v>
+      </c>
       <c r="H136" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I136" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G137" t="s">
+        <v>26</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>154</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G138" t="s">
+        <v>185</v>
+      </c>
       <c r="H138" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G139" t="s">
+        <v>26</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>154</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G140" t="s">
+        <v>185</v>
+      </c>
       <c r="H140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I140" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G141" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>154</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G142" t="s">
+        <v>185</v>
+      </c>
       <c r="H142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I142" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>168</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G143" t="s">
+        <v>201</v>
+      </c>
       <c r="H143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I143" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G144" t="s">
+        <v>26</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>168</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G145" t="s">
+        <v>201</v>
+      </c>
       <c r="H145" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s">
+        <v>26</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G147" t="s">
+        <v>201</v>
+      </c>
       <c r="H147" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>26</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G149" t="s">
+        <v>201</v>
+      </c>
       <c r="H149" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s">
+        <v>26</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>168</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G151" t="s">
+        <v>201</v>
+      </c>
       <c r="H151" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>178</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G152" t="s">
+        <v>213</v>
+      </c>
       <c r="H152" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I152" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G153" t="s">
+        <v>26</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>178</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G154" t="s">
+        <v>213</v>
+      </c>
       <c r="H154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I154" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>18</v>
+      </c>
       <c r="H155" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>183</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G156" t="s">
+        <v>220</v>
+      </c>
       <c r="H156" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I156" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G157" t="s">
+        <v>26</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>183</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G158" t="s">
+        <v>220</v>
+      </c>
       <c r="H158" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G159" t="s">
+        <v>26</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>183</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G160" t="s">
+        <v>220</v>
+      </c>
       <c r="H160" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I160" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G161" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>183</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G162" t="s">
+        <v>220</v>
+      </c>
       <c r="H162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I162" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G163" t="s">
+        <v>26</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>183</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G164" t="s">
+        <v>220</v>
+      </c>
       <c r="H164" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I164" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G165" t="s">
+        <v>26</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>183</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="G166" t="s">
+        <v>220</v>
+      </c>
       <c r="H166" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I166" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>195</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G167" t="s">
+        <v>234</v>
+      </c>
       <c r="H167" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I167" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G168" t="s">
+        <v>26</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>195</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G169" t="s">
+        <v>234</v>
+      </c>
       <c r="H169" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I169" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G170" t="s">
+        <v>26</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>195</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G171" t="s">
+        <v>234</v>
+      </c>
       <c r="H171" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I171" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G172" t="s">
+        <v>26</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>195</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G173" t="s">
+        <v>234</v>
+      </c>
       <c r="H173" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>22</v>
+      </c>
       <c r="H174" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I174" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G175" t="s">
+        <v>26</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>22</v>
+      </c>
       <c r="H176" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I176" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G177" t="s">
+        <v>26</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>207</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G178" t="s">
+        <v>247</v>
+      </c>
       <c r="H178" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I178" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G179" t="s">
+        <v>26</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>207</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G180" t="s">
+        <v>247</v>
+      </c>
       <c r="H180" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I180" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G181" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>207</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G182" t="s">
+        <v>247</v>
+      </c>
       <c r="H182" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I182" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G183" t="s">
+        <v>26</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>207</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G184" t="s">
+        <v>247</v>
+      </c>
       <c r="H184" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I184" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G185" t="s">
+        <v>26</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G186" t="s">
+        <v>247</v>
+      </c>
       <c r="H186" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I186" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G187" t="s">
+        <v>26</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G188" t="s">
+        <v>247</v>
+      </c>
       <c r="H188" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I188" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>219</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G189" t="s">
+        <v>260</v>
+      </c>
       <c r="H189" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I189" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G190" t="s">
+        <v>26</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>219</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G191" t="s">
+        <v>260</v>
+      </c>
       <c r="H191" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I191" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G192" t="s">
+        <v>26</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>219</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G193" t="s">
+        <v>260</v>
+      </c>
       <c r="H193" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I193" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>26</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>219</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G195" t="s">
+        <v>260</v>
+      </c>
       <c r="H195" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I195" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>26</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>219</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G197" t="s">
+        <v>260</v>
+      </c>
       <c r="H197" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I197" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>26</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>219</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G199" t="s">
+        <v>260</v>
+      </c>
       <c r="H199" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I199" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>26</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>219</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G201" t="s">
+        <v>260</v>
+      </c>
       <c r="H201" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I201" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G202" t="s">
+        <v>26</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>219</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G203" t="s">
+        <v>260</v>
+      </c>
       <c r="H203" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I203" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G204" t="s">
+        <v>26</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>219</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G205" t="s">
+        <v>260</v>
+      </c>
       <c r="H205" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I205" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G206" t="s">
+        <v>26</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>219</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G207" t="s">
+        <v>260</v>
+      </c>
       <c r="H207" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I207" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G208" t="s">
+        <v>26</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G209" t="s">
+        <v>18</v>
+      </c>
       <c r="H209" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I209" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G210" t="s">
+        <v>26</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G211" t="s">
+        <v>283</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G212" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G213" t="s">
+        <v>283</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>244</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>287</v>
+      </c>
+      <c r="G214" t="s">
+        <v>288</v>
+      </c>
       <c r="H214" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I214" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>244</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>287</v>
+      </c>
+      <c r="G215" t="s">
+        <v>288</v>
+      </c>
       <c r="H215" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I215" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G216" t="s">
+        <v>26</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>244</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>287</v>
+      </c>
+      <c r="G217" t="s">
+        <v>288</v>
+      </c>
       <c r="H217" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I217" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>26</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>244</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>287</v>
+      </c>
+      <c r="G219" t="s">
+        <v>288</v>
+      </c>
       <c r="H219" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I219" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>26</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>244</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>287</v>
+      </c>
+      <c r="G221" t="s">
+        <v>288</v>
+      </c>
       <c r="H221" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I221" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>26</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>26</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s"/>
-      <c r="H224" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G224" t="s">
+        <v>26</v>
+      </c>
+      <c r="H224" t="s"/>
+      <c r="I224" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s"/>
-      <c r="H226" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G226" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226" t="s"/>
+      <c r="I226" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G227" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s"/>
-      <c r="H228" t="s">
-        <v>259</v>
+        <v>25</v>
+      </c>
+      <c r="G228" t="s">
+        <v>26</v>
+      </c>
+      <c r="H228" t="s"/>
+      <c r="I228" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400162</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Grijalva</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>412294</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Lummis</t>
@@ -1277,7 +1286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,7 +1294,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,6378 +1319,6852 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I66" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G76" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G79" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G81" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I81" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G83" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G84" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G88" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G91" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I96" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G98" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I98" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G100" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G102" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I102" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G104" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G106" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G107" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G109" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I109" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="H111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I111" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G113" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I113" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" t="s">
-        <v>165</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>168</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G115" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="I115" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s">
-        <v>26</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G117" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="I117" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s">
-        <v>26</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G119" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="I119" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G121" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="I121" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
-      </c>
-      <c r="G122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>29</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G123" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="I123" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" t="s">
-        <v>26</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G125" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="I125" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
-      </c>
-      <c r="G126" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G127" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="I127" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G129" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="I129" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G130" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I130" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G132" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="H132" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I132" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>25</v>
-      </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G134" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I134" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J134" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
-      </c>
-      <c r="G135" t="s">
-        <v>26</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G136" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I136" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J136" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>25</v>
-      </c>
-      <c r="G137" t="s">
-        <v>26</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>29</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G138" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="H138" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J138" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>25</v>
-      </c>
-      <c r="G139" t="s">
-        <v>26</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>29</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G140" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="H140" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I140" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J140" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>25</v>
-      </c>
-      <c r="G141" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>29</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G142" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="H142" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I142" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G143" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I143" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J143" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
-      </c>
-      <c r="G144" t="s">
-        <v>26</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G145" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I145" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
-      </c>
-      <c r="G146" t="s">
-        <v>26</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>29</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G147" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="H147" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I147" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J147" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" t="s">
-        <v>26</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G149" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="H149" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I149" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J149" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
-      </c>
-      <c r="G150" t="s">
-        <v>26</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>29</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G151" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="H151" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I151" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G152" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="H152" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I152" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>217</v>
+      </c>
+      <c r="J152" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>25</v>
-      </c>
-      <c r="G153" t="s">
-        <v>26</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G154" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="H154" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I154" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G155" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H155" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I155" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J155" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G156" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="H156" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I156" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J156" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>25</v>
-      </c>
-      <c r="G157" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>29</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G158" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="H158" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I158" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>25</v>
-      </c>
-      <c r="G159" t="s">
-        <v>26</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>29</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G160" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="H160" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I160" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J160" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" t="s">
-        <v>26</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G162" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="H162" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I162" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J162" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>25</v>
-      </c>
-      <c r="G163" t="s">
-        <v>26</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>29</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G164" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="H164" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I164" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>25</v>
-      </c>
-      <c r="G165" t="s">
-        <v>26</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>29</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G166" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="H166" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I166" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J166" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G167" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="H167" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="I167" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J167" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>25</v>
-      </c>
-      <c r="G168" t="s">
-        <v>26</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G169" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="H169" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="I169" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J169" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>25</v>
-      </c>
-      <c r="G170" t="s">
-        <v>26</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>29</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G171" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="H171" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="I171" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J171" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>25</v>
-      </c>
-      <c r="G172" t="s">
-        <v>26</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>29</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G173" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="H173" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="I173" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J173" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I174" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J174" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>25</v>
-      </c>
-      <c r="G175" t="s">
-        <v>26</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>29</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I176" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J176" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>25</v>
-      </c>
-      <c r="G177" t="s">
-        <v>26</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>29</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G178" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="H178" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="I178" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J178" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>25</v>
-      </c>
-      <c r="G179" t="s">
-        <v>26</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G180" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="H180" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="I180" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J180" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>25</v>
-      </c>
-      <c r="G181" t="s">
-        <v>26</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G182" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="H182" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="I182" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J182" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>25</v>
-      </c>
-      <c r="G183" t="s">
-        <v>26</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>29</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G184" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="H184" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="I184" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J184" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>25</v>
-      </c>
-      <c r="G185" t="s">
-        <v>26</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G186" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="H186" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="I186" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J186" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>25</v>
-      </c>
-      <c r="G187" t="s">
-        <v>26</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G188" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="H188" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="I188" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J188" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G189" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I189" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J189" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>25</v>
-      </c>
-      <c r="G190" t="s">
-        <v>26</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G191" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H191" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I191" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>25</v>
-      </c>
-      <c r="G192" t="s">
-        <v>26</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>29</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G193" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J193" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>25</v>
-      </c>
-      <c r="G194" t="s">
-        <v>26</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>29</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G195" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H195" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I195" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J195" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>25</v>
-      </c>
-      <c r="G196" t="s">
-        <v>26</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>29</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G197" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H197" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I197" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J197" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>25</v>
-      </c>
-      <c r="G198" t="s">
-        <v>26</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>29</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G199" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H199" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I199" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J199" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>25</v>
-      </c>
-      <c r="G200" t="s">
-        <v>26</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>29</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G201" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H201" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I201" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J201" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>25</v>
-      </c>
-      <c r="G202" t="s">
-        <v>26</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>29</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G203" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H203" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I203" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J203" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
-      </c>
-      <c r="G204" t="s">
-        <v>26</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>29</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G205" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H205" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I205" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J205" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>25</v>
-      </c>
-      <c r="G206" t="s">
-        <v>26</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>29</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G207" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="H207" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I207" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J207" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>25</v>
-      </c>
-      <c r="G208" t="s">
-        <v>26</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>29</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G209" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I209" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J209" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>25</v>
-      </c>
-      <c r="G210" t="s">
-        <v>26</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>29</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>25</v>
-      </c>
-      <c r="G211" t="s">
-        <v>283</v>
-      </c>
-      <c r="H211" t="s"/>
-      <c r="I211" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G211" t="s"/>
+      <c r="H211" t="s">
+        <v>286</v>
+      </c>
+      <c r="I211" t="s"/>
+      <c r="J211" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>25</v>
-      </c>
-      <c r="G212" t="s">
-        <v>26</v>
-      </c>
-      <c r="H212" t="s"/>
-      <c r="I212" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
+        <v>29</v>
+      </c>
+      <c r="I212" t="s"/>
+      <c r="J212" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>25</v>
-      </c>
-      <c r="G213" t="s">
-        <v>283</v>
-      </c>
-      <c r="H213" t="s"/>
-      <c r="I213" t="s">
+        <v>28</v>
+      </c>
+      <c r="G213" t="s"/>
+      <c r="H213" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="I213" t="s"/>
+      <c r="J213" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G214" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I214" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>292</v>
+      </c>
+      <c r="J214" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G215" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="H215" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I215" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>292</v>
+      </c>
+      <c r="J215" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>25</v>
-      </c>
-      <c r="G216" t="s">
-        <v>26</v>
-      </c>
-      <c r="H216" t="s"/>
-      <c r="I216" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G216" t="s"/>
+      <c r="H216" t="s">
+        <v>29</v>
+      </c>
+      <c r="I216" t="s"/>
+      <c r="J216" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G217" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="H217" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I217" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>292</v>
+      </c>
+      <c r="J217" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>25</v>
-      </c>
-      <c r="G218" t="s">
-        <v>26</v>
-      </c>
-      <c r="H218" t="s"/>
-      <c r="I218" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G218" t="s"/>
+      <c r="H218" t="s">
+        <v>29</v>
+      </c>
+      <c r="I218" t="s"/>
+      <c r="J218" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G219" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="H219" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I219" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>292</v>
+      </c>
+      <c r="J219" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>25</v>
-      </c>
-      <c r="G220" t="s">
-        <v>26</v>
-      </c>
-      <c r="H220" t="s"/>
-      <c r="I220" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s"/>
+      <c r="H220" t="s">
+        <v>29</v>
+      </c>
+      <c r="I220" t="s"/>
+      <c r="J220" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G221" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="H221" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I221" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>292</v>
+      </c>
+      <c r="J221" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>25</v>
-      </c>
-      <c r="G222" t="s">
-        <v>26</v>
-      </c>
-      <c r="H222" t="s"/>
-      <c r="I222" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s"/>
+      <c r="H222" t="s">
+        <v>29</v>
+      </c>
+      <c r="I222" t="s"/>
+      <c r="J222" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>25</v>
-      </c>
-      <c r="G223" t="s">
-        <v>26</v>
-      </c>
-      <c r="H223" t="s"/>
-      <c r="I223" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s"/>
+      <c r="H223" t="s">
+        <v>29</v>
+      </c>
+      <c r="I223" t="s"/>
+      <c r="J223" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>25</v>
-      </c>
-      <c r="G224" t="s">
-        <v>26</v>
-      </c>
-      <c r="H224" t="s"/>
-      <c r="I224" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G224" t="s"/>
+      <c r="H224" t="s">
+        <v>29</v>
+      </c>
+      <c r="I224" t="s"/>
+      <c r="J224" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>25</v>
-      </c>
-      <c r="G225" t="s">
-        <v>26</v>
-      </c>
-      <c r="H225" t="s"/>
-      <c r="I225" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s"/>
+      <c r="H225" t="s">
+        <v>29</v>
+      </c>
+      <c r="I225" t="s"/>
+      <c r="J225" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F226" t="s">
-        <v>25</v>
-      </c>
-      <c r="G226" t="s">
-        <v>26</v>
-      </c>
-      <c r="H226" t="s"/>
-      <c r="I226" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G226" t="s"/>
+      <c r="H226" t="s">
+        <v>29</v>
+      </c>
+      <c r="I226" t="s"/>
+      <c r="J226" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E227" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F227" t="s">
-        <v>25</v>
-      </c>
-      <c r="G227" t="s">
-        <v>26</v>
-      </c>
-      <c r="H227" t="s"/>
-      <c r="I227" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G227" t="s"/>
+      <c r="H227" t="s">
+        <v>29</v>
+      </c>
+      <c r="I227" t="s"/>
+      <c r="J227" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E228" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F228" t="s">
-        <v>25</v>
-      </c>
-      <c r="G228" t="s">
-        <v>26</v>
-      </c>
-      <c r="H228" t="s"/>
-      <c r="I228" t="s">
-        <v>304</v>
+        <v>28</v>
+      </c>
+      <c r="G228" t="s"/>
+      <c r="H228" t="s">
+        <v>29</v>
+      </c>
+      <c r="I228" t="s"/>
+      <c r="J228" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
